--- a/testsets/Set D Resolution/Meetresultaten Resoltuion/Resolution Luma.xlsx
+++ b/testsets/Set D Resolution/Meetresultaten Resoltuion/Resolution Luma.xlsx
@@ -5,24 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties1\OneDrive\Bureaublad\STUDIE\HBO-ICT jaar 2019-2020\Vision\Github repo\HU-Vision-Ties-Mick\testsets\Set D Resolution\Meetresultaten Resoltuion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickb\source\repos\Tiesbrouwer10\HU-Vision-Ties-Mick\testsets\Set D Resolution\Meetresultaten Resoltuion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30799C74-ABA0-4E0B-8ABF-73FBC51BAC5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CEE86B-9997-4494-B3A2-F404DE4656B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-8835" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15888" yWindow="8856" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -9972,1720 +9979,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="B3">
-            <v>2</v>
-          </cell>
-          <cell r="E3">
-            <v>9</v>
-          </cell>
-          <cell r="H3">
-            <v>12</v>
-          </cell>
-          <cell r="K3">
-            <v>12</v>
-          </cell>
-          <cell r="N3">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-          <cell r="E4">
-            <v>9</v>
-          </cell>
-          <cell r="H4">
-            <v>12</v>
-          </cell>
-          <cell r="K4">
-            <v>4</v>
-          </cell>
-          <cell r="N4">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>2</v>
-          </cell>
-          <cell r="E5">
-            <v>9</v>
-          </cell>
-          <cell r="H5">
-            <v>12</v>
-          </cell>
-          <cell r="K5">
-            <v>12</v>
-          </cell>
-          <cell r="N5">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="E6">
-            <v>9</v>
-          </cell>
-          <cell r="H6">
-            <v>12</v>
-          </cell>
-          <cell r="K6">
-            <v>4</v>
-          </cell>
-          <cell r="N6">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>2</v>
-          </cell>
-          <cell r="E7">
-            <v>9</v>
-          </cell>
-          <cell r="H7">
-            <v>12</v>
-          </cell>
-          <cell r="K7">
-            <v>12</v>
-          </cell>
-          <cell r="N7">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>2</v>
-          </cell>
-          <cell r="E8">
-            <v>9</v>
-          </cell>
-          <cell r="H8">
-            <v>12</v>
-          </cell>
-          <cell r="K8">
-            <v>12</v>
-          </cell>
-          <cell r="N8">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>2</v>
-          </cell>
-          <cell r="E9">
-            <v>9</v>
-          </cell>
-          <cell r="H9">
-            <v>12</v>
-          </cell>
-          <cell r="K9">
-            <v>5</v>
-          </cell>
-          <cell r="N9">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>2</v>
-          </cell>
-          <cell r="E10">
-            <v>9</v>
-          </cell>
-          <cell r="H10">
-            <v>12</v>
-          </cell>
-          <cell r="K10">
-            <v>5</v>
-          </cell>
-          <cell r="N10">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>2</v>
-          </cell>
-          <cell r="E11">
-            <v>9</v>
-          </cell>
-          <cell r="H11">
-            <v>12</v>
-          </cell>
-          <cell r="K11">
-            <v>4</v>
-          </cell>
-          <cell r="N11">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>2</v>
-          </cell>
-          <cell r="E12">
-            <v>9</v>
-          </cell>
-          <cell r="H12">
-            <v>12</v>
-          </cell>
-          <cell r="K12">
-            <v>12</v>
-          </cell>
-          <cell r="N12">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>2</v>
-          </cell>
-          <cell r="E13">
-            <v>9</v>
-          </cell>
-          <cell r="H13">
-            <v>12</v>
-          </cell>
-          <cell r="K13">
-            <v>12</v>
-          </cell>
-          <cell r="N13">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>2</v>
-          </cell>
-          <cell r="E14">
-            <v>9</v>
-          </cell>
-          <cell r="H14">
-            <v>12</v>
-          </cell>
-          <cell r="K14">
-            <v>4</v>
-          </cell>
-          <cell r="N14">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>12</v>
-          </cell>
-          <cell r="E15">
-            <v>9</v>
-          </cell>
-          <cell r="H15">
-            <v>12</v>
-          </cell>
-          <cell r="K15">
-            <v>12</v>
-          </cell>
-          <cell r="N15">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>12</v>
-          </cell>
-          <cell r="E16">
-            <v>9</v>
-          </cell>
-          <cell r="H16">
-            <v>12</v>
-          </cell>
-          <cell r="K16">
-            <v>12</v>
-          </cell>
-          <cell r="N16">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>12</v>
-          </cell>
-          <cell r="E17">
-            <v>9</v>
-          </cell>
-          <cell r="H17">
-            <v>12</v>
-          </cell>
-          <cell r="K17">
-            <v>12</v>
-          </cell>
-          <cell r="N17">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>12</v>
-          </cell>
-          <cell r="E18">
-            <v>9</v>
-          </cell>
-          <cell r="H18">
-            <v>12</v>
-          </cell>
-          <cell r="K18">
-            <v>12</v>
-          </cell>
-          <cell r="N18">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>2</v>
-          </cell>
-          <cell r="E19">
-            <v>9</v>
-          </cell>
-          <cell r="H19">
-            <v>12</v>
-          </cell>
-          <cell r="K19">
-            <v>12</v>
-          </cell>
-          <cell r="N19">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>12</v>
-          </cell>
-          <cell r="E20">
-            <v>9</v>
-          </cell>
-          <cell r="H20">
-            <v>12</v>
-          </cell>
-          <cell r="K20">
-            <v>12</v>
-          </cell>
-          <cell r="N20">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>2</v>
-          </cell>
-          <cell r="E21">
-            <v>9</v>
-          </cell>
-          <cell r="H21">
-            <v>12</v>
-          </cell>
-          <cell r="K21">
-            <v>5</v>
-          </cell>
-          <cell r="N21">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>12</v>
-          </cell>
-          <cell r="E22">
-            <v>9</v>
-          </cell>
-          <cell r="H22">
-            <v>12</v>
-          </cell>
-          <cell r="K22">
-            <v>12</v>
-          </cell>
-          <cell r="N22">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>12</v>
-          </cell>
-          <cell r="E23">
-            <v>9</v>
-          </cell>
-          <cell r="H23">
-            <v>12</v>
-          </cell>
-          <cell r="K23">
-            <v>12</v>
-          </cell>
-          <cell r="N23">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>12</v>
-          </cell>
-          <cell r="E24">
-            <v>12</v>
-          </cell>
-          <cell r="H24">
-            <v>12</v>
-          </cell>
-          <cell r="K24">
-            <v>12</v>
-          </cell>
-          <cell r="N24">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>12</v>
-          </cell>
-          <cell r="E25">
-            <v>9</v>
-          </cell>
-          <cell r="H25">
-            <v>12</v>
-          </cell>
-          <cell r="K25">
-            <v>12</v>
-          </cell>
-          <cell r="N25">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>12</v>
-          </cell>
-          <cell r="E26">
-            <v>9</v>
-          </cell>
-          <cell r="H26">
-            <v>12</v>
-          </cell>
-          <cell r="K26">
-            <v>12</v>
-          </cell>
-          <cell r="N26">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>12</v>
-          </cell>
-          <cell r="E27">
-            <v>12</v>
-          </cell>
-          <cell r="H27">
-            <v>12</v>
-          </cell>
-          <cell r="K27">
-            <v>5</v>
-          </cell>
-          <cell r="N27">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>12</v>
-          </cell>
-          <cell r="E28">
-            <v>9</v>
-          </cell>
-          <cell r="H28">
-            <v>12</v>
-          </cell>
-          <cell r="K28">
-            <v>12</v>
-          </cell>
-          <cell r="N28">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>12</v>
-          </cell>
-          <cell r="E29">
-            <v>9</v>
-          </cell>
-          <cell r="H29">
-            <v>12</v>
-          </cell>
-          <cell r="K29">
-            <v>12</v>
-          </cell>
-          <cell r="N29">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>12</v>
-          </cell>
-          <cell r="E30">
-            <v>9</v>
-          </cell>
-          <cell r="H30">
-            <v>12</v>
-          </cell>
-          <cell r="K30">
-            <v>12</v>
-          </cell>
-          <cell r="N30">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>12</v>
-          </cell>
-          <cell r="E31">
-            <v>12</v>
-          </cell>
-          <cell r="H31">
-            <v>12</v>
-          </cell>
-          <cell r="K31">
-            <v>12</v>
-          </cell>
-          <cell r="N31">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>12</v>
-          </cell>
-          <cell r="E32">
-            <v>12</v>
-          </cell>
-          <cell r="H32">
-            <v>12</v>
-          </cell>
-          <cell r="K32">
-            <v>12</v>
-          </cell>
-          <cell r="N32">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>12</v>
-          </cell>
-          <cell r="E33">
-            <v>12</v>
-          </cell>
-          <cell r="H33">
-            <v>12</v>
-          </cell>
-          <cell r="K33">
-            <v>12</v>
-          </cell>
-          <cell r="N33">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>12</v>
-          </cell>
-          <cell r="E34">
-            <v>12</v>
-          </cell>
-          <cell r="H34">
-            <v>12</v>
-          </cell>
-          <cell r="K34">
-            <v>12</v>
-          </cell>
-          <cell r="N34">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>12</v>
-          </cell>
-          <cell r="E35">
-            <v>12</v>
-          </cell>
-          <cell r="H35">
-            <v>12</v>
-          </cell>
-          <cell r="K35">
-            <v>12</v>
-          </cell>
-          <cell r="N35">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>12</v>
-          </cell>
-          <cell r="E36">
-            <v>12</v>
-          </cell>
-          <cell r="H36">
-            <v>12</v>
-          </cell>
-          <cell r="K36">
-            <v>12</v>
-          </cell>
-          <cell r="N36">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>12</v>
-          </cell>
-          <cell r="E37">
-            <v>12</v>
-          </cell>
-          <cell r="H37">
-            <v>12</v>
-          </cell>
-          <cell r="K37">
-            <v>12</v>
-          </cell>
-          <cell r="N37">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>12</v>
-          </cell>
-          <cell r="E38">
-            <v>12</v>
-          </cell>
-          <cell r="H38">
-            <v>12</v>
-          </cell>
-          <cell r="K38">
-            <v>12</v>
-          </cell>
-          <cell r="N38">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>12</v>
-          </cell>
-          <cell r="E39">
-            <v>12</v>
-          </cell>
-          <cell r="H39">
-            <v>12</v>
-          </cell>
-          <cell r="K39">
-            <v>12</v>
-          </cell>
-          <cell r="N39">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>12</v>
-          </cell>
-          <cell r="E40">
-            <v>12</v>
-          </cell>
-          <cell r="H40">
-            <v>12</v>
-          </cell>
-          <cell r="K40">
-            <v>12</v>
-          </cell>
-          <cell r="N40">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>12</v>
-          </cell>
-          <cell r="E41">
-            <v>12</v>
-          </cell>
-          <cell r="H41">
-            <v>12</v>
-          </cell>
-          <cell r="K41">
-            <v>12</v>
-          </cell>
-          <cell r="N41">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>12</v>
-          </cell>
-          <cell r="E42">
-            <v>12</v>
-          </cell>
-          <cell r="H42">
-            <v>12</v>
-          </cell>
-          <cell r="K42">
-            <v>12</v>
-          </cell>
-          <cell r="N42">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>12</v>
-          </cell>
-          <cell r="E43">
-            <v>12</v>
-          </cell>
-          <cell r="H43">
-            <v>12</v>
-          </cell>
-          <cell r="K43">
-            <v>12</v>
-          </cell>
-          <cell r="N43">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>12</v>
-          </cell>
-          <cell r="E44">
-            <v>12</v>
-          </cell>
-          <cell r="H44">
-            <v>12</v>
-          </cell>
-          <cell r="K44">
-            <v>12</v>
-          </cell>
-          <cell r="N44">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>12</v>
-          </cell>
-          <cell r="E45">
-            <v>12</v>
-          </cell>
-          <cell r="H45">
-            <v>12</v>
-          </cell>
-          <cell r="K45">
-            <v>12</v>
-          </cell>
-          <cell r="N45">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>12</v>
-          </cell>
-          <cell r="E46">
-            <v>12</v>
-          </cell>
-          <cell r="H46">
-            <v>12</v>
-          </cell>
-          <cell r="K46">
-            <v>12</v>
-          </cell>
-          <cell r="N46">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>12</v>
-          </cell>
-          <cell r="E47">
-            <v>12</v>
-          </cell>
-          <cell r="H47">
-            <v>12</v>
-          </cell>
-          <cell r="K47">
-            <v>12</v>
-          </cell>
-          <cell r="N47">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>12</v>
-          </cell>
-          <cell r="E48">
-            <v>12</v>
-          </cell>
-          <cell r="H48">
-            <v>12</v>
-          </cell>
-          <cell r="K48">
-            <v>12</v>
-          </cell>
-          <cell r="N48">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>12</v>
-          </cell>
-          <cell r="E49">
-            <v>12</v>
-          </cell>
-          <cell r="H49">
-            <v>12</v>
-          </cell>
-          <cell r="K49">
-            <v>12</v>
-          </cell>
-          <cell r="N49">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>12</v>
-          </cell>
-          <cell r="E50">
-            <v>12</v>
-          </cell>
-          <cell r="H50">
-            <v>12</v>
-          </cell>
-          <cell r="K50">
-            <v>12</v>
-          </cell>
-          <cell r="N50">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>12</v>
-          </cell>
-          <cell r="E51">
-            <v>12</v>
-          </cell>
-          <cell r="H51">
-            <v>12</v>
-          </cell>
-          <cell r="K51">
-            <v>12</v>
-          </cell>
-          <cell r="N51">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>12</v>
-          </cell>
-          <cell r="E52">
-            <v>12</v>
-          </cell>
-          <cell r="H52">
-            <v>12</v>
-          </cell>
-          <cell r="K52">
-            <v>12</v>
-          </cell>
-          <cell r="N52">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>12</v>
-          </cell>
-          <cell r="E53">
-            <v>12</v>
-          </cell>
-          <cell r="H53">
-            <v>12</v>
-          </cell>
-          <cell r="K53">
-            <v>12</v>
-          </cell>
-          <cell r="N53">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>12</v>
-          </cell>
-          <cell r="E54">
-            <v>12</v>
-          </cell>
-          <cell r="H54">
-            <v>12</v>
-          </cell>
-          <cell r="K54">
-            <v>12</v>
-          </cell>
-          <cell r="N54">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>2</v>
-          </cell>
-          <cell r="E55">
-            <v>12</v>
-          </cell>
-          <cell r="H55">
-            <v>12</v>
-          </cell>
-          <cell r="K55">
-            <v>12</v>
-          </cell>
-          <cell r="N55">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>12</v>
-          </cell>
-          <cell r="E56">
-            <v>12</v>
-          </cell>
-          <cell r="H56">
-            <v>12</v>
-          </cell>
-          <cell r="K56">
-            <v>12</v>
-          </cell>
-          <cell r="N56">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>12</v>
-          </cell>
-          <cell r="E57">
-            <v>12</v>
-          </cell>
-          <cell r="H57">
-            <v>12</v>
-          </cell>
-          <cell r="K57">
-            <v>12</v>
-          </cell>
-          <cell r="N57">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>12</v>
-          </cell>
-          <cell r="E58">
-            <v>12</v>
-          </cell>
-          <cell r="H58">
-            <v>12</v>
-          </cell>
-          <cell r="K58">
-            <v>12</v>
-          </cell>
-          <cell r="N58">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>12</v>
-          </cell>
-          <cell r="E59">
-            <v>12</v>
-          </cell>
-          <cell r="H59">
-            <v>12</v>
-          </cell>
-          <cell r="K59">
-            <v>12</v>
-          </cell>
-          <cell r="N59">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>12</v>
-          </cell>
-          <cell r="E60">
-            <v>12</v>
-          </cell>
-          <cell r="H60">
-            <v>12</v>
-          </cell>
-          <cell r="K60">
-            <v>12</v>
-          </cell>
-          <cell r="N60">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>12</v>
-          </cell>
-          <cell r="E61">
-            <v>12</v>
-          </cell>
-          <cell r="H61">
-            <v>12</v>
-          </cell>
-          <cell r="K61">
-            <v>12</v>
-          </cell>
-          <cell r="N61">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>12</v>
-          </cell>
-          <cell r="E62">
-            <v>12</v>
-          </cell>
-          <cell r="H62">
-            <v>12</v>
-          </cell>
-          <cell r="K62">
-            <v>12</v>
-          </cell>
-          <cell r="N62">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>12</v>
-          </cell>
-          <cell r="E63">
-            <v>12</v>
-          </cell>
-          <cell r="H63">
-            <v>12</v>
-          </cell>
-          <cell r="K63">
-            <v>12</v>
-          </cell>
-          <cell r="N63">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>12</v>
-          </cell>
-          <cell r="E64">
-            <v>12</v>
-          </cell>
-          <cell r="H64">
-            <v>12</v>
-          </cell>
-          <cell r="K64">
-            <v>12</v>
-          </cell>
-          <cell r="N64">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>12</v>
-          </cell>
-          <cell r="E65">
-            <v>12</v>
-          </cell>
-          <cell r="H65">
-            <v>12</v>
-          </cell>
-          <cell r="K65">
-            <v>12</v>
-          </cell>
-          <cell r="N65">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>12</v>
-          </cell>
-          <cell r="E66">
-            <v>12</v>
-          </cell>
-          <cell r="H66">
-            <v>12</v>
-          </cell>
-          <cell r="K66">
-            <v>12</v>
-          </cell>
-          <cell r="N66">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>12</v>
-          </cell>
-          <cell r="E67">
-            <v>12</v>
-          </cell>
-          <cell r="H67">
-            <v>12</v>
-          </cell>
-          <cell r="K67">
-            <v>12</v>
-          </cell>
-          <cell r="N67">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>12</v>
-          </cell>
-          <cell r="E68">
-            <v>12</v>
-          </cell>
-          <cell r="H68">
-            <v>12</v>
-          </cell>
-          <cell r="K68">
-            <v>12</v>
-          </cell>
-          <cell r="N68">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>12</v>
-          </cell>
-          <cell r="E69">
-            <v>12</v>
-          </cell>
-          <cell r="H69">
-            <v>12</v>
-          </cell>
-          <cell r="K69">
-            <v>12</v>
-          </cell>
-          <cell r="N69">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>12</v>
-          </cell>
-          <cell r="E70">
-            <v>12</v>
-          </cell>
-          <cell r="H70">
-            <v>12</v>
-          </cell>
-          <cell r="K70">
-            <v>12</v>
-          </cell>
-          <cell r="N70">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>12</v>
-          </cell>
-          <cell r="E71">
-            <v>12</v>
-          </cell>
-          <cell r="H71">
-            <v>12</v>
-          </cell>
-          <cell r="K71">
-            <v>12</v>
-          </cell>
-          <cell r="N71">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>12</v>
-          </cell>
-          <cell r="E72">
-            <v>12</v>
-          </cell>
-          <cell r="H72">
-            <v>12</v>
-          </cell>
-          <cell r="K72">
-            <v>12</v>
-          </cell>
-          <cell r="N72">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>12</v>
-          </cell>
-          <cell r="E73">
-            <v>12</v>
-          </cell>
-          <cell r="H73">
-            <v>12</v>
-          </cell>
-          <cell r="K73">
-            <v>12</v>
-          </cell>
-          <cell r="N73">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>12</v>
-          </cell>
-          <cell r="E74">
-            <v>12</v>
-          </cell>
-          <cell r="H74">
-            <v>12</v>
-          </cell>
-          <cell r="K74">
-            <v>12</v>
-          </cell>
-          <cell r="N74">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>12</v>
-          </cell>
-          <cell r="E75">
-            <v>12</v>
-          </cell>
-          <cell r="H75">
-            <v>12</v>
-          </cell>
-          <cell r="K75">
-            <v>12</v>
-          </cell>
-          <cell r="N75">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>12</v>
-          </cell>
-          <cell r="E76">
-            <v>12</v>
-          </cell>
-          <cell r="H76">
-            <v>12</v>
-          </cell>
-          <cell r="K76">
-            <v>12</v>
-          </cell>
-          <cell r="N76">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>12</v>
-          </cell>
-          <cell r="E77">
-            <v>12</v>
-          </cell>
-          <cell r="H77">
-            <v>12</v>
-          </cell>
-          <cell r="K77">
-            <v>12</v>
-          </cell>
-          <cell r="N77">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>12</v>
-          </cell>
-          <cell r="E78">
-            <v>12</v>
-          </cell>
-          <cell r="H78">
-            <v>12</v>
-          </cell>
-          <cell r="K78">
-            <v>12</v>
-          </cell>
-          <cell r="N78">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>12</v>
-          </cell>
-          <cell r="E79">
-            <v>12</v>
-          </cell>
-          <cell r="H79">
-            <v>12</v>
-          </cell>
-          <cell r="K79">
-            <v>12</v>
-          </cell>
-          <cell r="N79">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>12</v>
-          </cell>
-          <cell r="E80">
-            <v>12</v>
-          </cell>
-          <cell r="H80">
-            <v>12</v>
-          </cell>
-          <cell r="K80">
-            <v>12</v>
-          </cell>
-          <cell r="N80">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>12</v>
-          </cell>
-          <cell r="E81">
-            <v>12</v>
-          </cell>
-          <cell r="H81">
-            <v>12</v>
-          </cell>
-          <cell r="K81">
-            <v>12</v>
-          </cell>
-          <cell r="N81">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>12</v>
-          </cell>
-          <cell r="E82">
-            <v>12</v>
-          </cell>
-          <cell r="H82">
-            <v>12</v>
-          </cell>
-          <cell r="K82">
-            <v>12</v>
-          </cell>
-          <cell r="N82">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>12</v>
-          </cell>
-          <cell r="E83">
-            <v>12</v>
-          </cell>
-          <cell r="H83">
-            <v>12</v>
-          </cell>
-          <cell r="K83">
-            <v>12</v>
-          </cell>
-          <cell r="N83">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>12</v>
-          </cell>
-          <cell r="E84">
-            <v>12</v>
-          </cell>
-          <cell r="H84">
-            <v>12</v>
-          </cell>
-          <cell r="K84">
-            <v>12</v>
-          </cell>
-          <cell r="N84">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>12</v>
-          </cell>
-          <cell r="E85">
-            <v>12</v>
-          </cell>
-          <cell r="H85">
-            <v>12</v>
-          </cell>
-          <cell r="K85">
-            <v>12</v>
-          </cell>
-          <cell r="N85">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>12</v>
-          </cell>
-          <cell r="E86">
-            <v>12</v>
-          </cell>
-          <cell r="H86">
-            <v>12</v>
-          </cell>
-          <cell r="K86">
-            <v>12</v>
-          </cell>
-          <cell r="N86">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>12</v>
-          </cell>
-          <cell r="E87">
-            <v>12</v>
-          </cell>
-          <cell r="H87">
-            <v>4</v>
-          </cell>
-          <cell r="K87">
-            <v>12</v>
-          </cell>
-          <cell r="N87">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>12</v>
-          </cell>
-          <cell r="E88">
-            <v>12</v>
-          </cell>
-          <cell r="H88">
-            <v>12</v>
-          </cell>
-          <cell r="K88">
-            <v>12</v>
-          </cell>
-          <cell r="N88">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>12</v>
-          </cell>
-          <cell r="E89">
-            <v>12</v>
-          </cell>
-          <cell r="H89">
-            <v>12</v>
-          </cell>
-          <cell r="K89">
-            <v>12</v>
-          </cell>
-          <cell r="N89">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>12</v>
-          </cell>
-          <cell r="E90">
-            <v>12</v>
-          </cell>
-          <cell r="H90">
-            <v>12</v>
-          </cell>
-          <cell r="K90">
-            <v>12</v>
-          </cell>
-          <cell r="N90">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>12</v>
-          </cell>
-          <cell r="E91">
-            <v>12</v>
-          </cell>
-          <cell r="H91">
-            <v>12</v>
-          </cell>
-          <cell r="K91">
-            <v>12</v>
-          </cell>
-          <cell r="N91">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>12</v>
-          </cell>
-          <cell r="E92">
-            <v>12</v>
-          </cell>
-          <cell r="H92">
-            <v>4</v>
-          </cell>
-          <cell r="K92">
-            <v>12</v>
-          </cell>
-          <cell r="N92">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>12</v>
-          </cell>
-          <cell r="E93">
-            <v>12</v>
-          </cell>
-          <cell r="H93">
-            <v>4</v>
-          </cell>
-          <cell r="K93">
-            <v>12</v>
-          </cell>
-          <cell r="N93">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>12</v>
-          </cell>
-          <cell r="E94">
-            <v>12</v>
-          </cell>
-          <cell r="H94">
-            <v>12</v>
-          </cell>
-          <cell r="K94">
-            <v>12</v>
-          </cell>
-          <cell r="N94">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>12</v>
-          </cell>
-          <cell r="E95">
-            <v>12</v>
-          </cell>
-          <cell r="H95">
-            <v>12</v>
-          </cell>
-          <cell r="K95">
-            <v>12</v>
-          </cell>
-          <cell r="N95">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>12</v>
-          </cell>
-          <cell r="E96">
-            <v>12</v>
-          </cell>
-          <cell r="H96">
-            <v>4</v>
-          </cell>
-          <cell r="K96">
-            <v>12</v>
-          </cell>
-          <cell r="N96">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>12</v>
-          </cell>
-          <cell r="E97">
-            <v>12</v>
-          </cell>
-          <cell r="H97">
-            <v>4</v>
-          </cell>
-          <cell r="K97">
-            <v>12</v>
-          </cell>
-          <cell r="N97">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>12</v>
-          </cell>
-          <cell r="E98">
-            <v>12</v>
-          </cell>
-          <cell r="H98">
-            <v>4</v>
-          </cell>
-          <cell r="K98">
-            <v>12</v>
-          </cell>
-          <cell r="N98">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>12</v>
-          </cell>
-          <cell r="E99">
-            <v>12</v>
-          </cell>
-          <cell r="H99">
-            <v>4</v>
-          </cell>
-          <cell r="K99">
-            <v>12</v>
-          </cell>
-          <cell r="N99">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>12</v>
-          </cell>
-          <cell r="E100">
-            <v>12</v>
-          </cell>
-          <cell r="H100">
-            <v>4</v>
-          </cell>
-          <cell r="K100">
-            <v>12</v>
-          </cell>
-          <cell r="N100">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>12</v>
-          </cell>
-          <cell r="E101">
-            <v>12</v>
-          </cell>
-          <cell r="H101">
-            <v>4</v>
-          </cell>
-          <cell r="K101">
-            <v>12</v>
-          </cell>
-          <cell r="N101">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>12</v>
-          </cell>
-          <cell r="E102">
-            <v>12</v>
-          </cell>
-          <cell r="H102">
-            <v>4</v>
-          </cell>
-          <cell r="K102">
-            <v>12</v>
-          </cell>
-          <cell r="N102">
-            <v>12</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11949,10 +10242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:Q104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15014,7 +13307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -15046,7 +13339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>93</v>
       </c>
@@ -15078,7 +13371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>94</v>
       </c>
@@ -15110,7 +13403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -15142,7 +13435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -15174,7 +13467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -15204,6 +13497,32 @@
       </c>
       <c r="N102">
         <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <f>COUNTIF(B3:B102,12)</f>
+        <v>30</v>
+      </c>
+      <c r="E104">
+        <f>COUNTIF(E3:E102,12)</f>
+        <v>31</v>
+      </c>
+      <c r="H104">
+        <f>COUNTIF(H3:H102,12)</f>
+        <v>68</v>
+      </c>
+      <c r="K104">
+        <f>COUNTIF(K3:K102,12)</f>
+        <v>13</v>
+      </c>
+      <c r="N104">
+        <f>COUNTIF(N3:N102,12)</f>
+        <v>34</v>
+      </c>
+      <c r="Q104">
+        <f>AVERAGE(B104:N104)</f>
+        <v>35.200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/testsets/Set D Resolution/Meetresultaten Resoltuion/Resolution Luma.xlsx
+++ b/testsets/Set D Resolution/Meetresultaten Resoltuion/Resolution Luma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickb\source\repos\Tiesbrouwer10\HU-Vision-Ties-Mick\testsets\Set D Resolution\Meetresultaten Resoltuion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties1\OneDrive\Bureaublad\STUDIE\HBO-ICT jaar 2019-2020\Vision\Github repo\HU-Vision-Ties-Mick\testsets\Set D Resolution\Meetresultaten Resoltuion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CEE86B-9997-4494-B3A2-F404DE4656B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D49B5-DBDC-4E28-A4CD-1C63262CFD09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15888" yWindow="8856" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-8835" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="114">
   <si>
     <t>Resolution METINGEN</t>
   </si>
@@ -358,12 +380,33 @@
   <si>
     <t>picture 5</t>
   </si>
+  <si>
+    <t>Picture1</t>
+  </si>
+  <si>
+    <t>Picture 2</t>
+  </si>
+  <si>
+    <t>Picture3</t>
+  </si>
+  <si>
+    <t>Picture4</t>
+  </si>
+  <si>
+    <t>Picture5</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +416,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,8 +449,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8112,15 +8164,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>320992</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>177339</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82348</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>115367</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>479049</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>40203</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10242,15 +10294,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:Q104"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM33" sqref="AM33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10267,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -10299,7 +10351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -10331,7 +10383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -10363,7 +10415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -10395,7 +10447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -10426,8 +10478,25 @@
       <c r="N6">
         <v>4</v>
       </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -10458,8 +10527,31 @@
       <c r="N7">
         <v>4</v>
       </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" cm="1">
+        <f t="array" ref="AD7:AD18">COUNTIF(B3:B52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" cm="1">
+        <f t="array" ref="AE7:AE18">COUNTIF(E3:E52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" cm="1">
+        <f t="array" ref="AF7:AF18">COUNTIF(H3:H52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" cm="1">
+        <f t="array" ref="AG7:AG18">COUNTIF(K3:K52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" cm="1">
+        <f t="array" ref="AH7:AH18">COUNTIF(N3:N52,AC7:AC18)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -10490,8 +10582,26 @@
       <c r="N8">
         <v>4</v>
       </c>
+      <c r="AC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>24</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>11</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -10522,8 +10632,26 @@
       <c r="N9">
         <v>4</v>
       </c>
+      <c r="AC9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -10554,8 +10682,26 @@
       <c r="N10">
         <v>4</v>
       </c>
+      <c r="AC10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>23</v>
+      </c>
+      <c r="AF10">
+        <v>27</v>
+      </c>
+      <c r="AG10">
+        <v>37</v>
+      </c>
+      <c r="AH10">
+        <v>43</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -10586,8 +10732,29 @@
       <c r="N11">
         <v>4</v>
       </c>
+      <c r="AB11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>21</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>3</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -10618,8 +10785,26 @@
       <c r="N12">
         <v>4</v>
       </c>
+      <c r="AC12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10650,8 +10835,26 @@
       <c r="N13">
         <v>4</v>
       </c>
+      <c r="AC13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -10682,8 +10885,26 @@
       <c r="N14">
         <v>4</v>
       </c>
+      <c r="AC14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -10714,8 +10935,26 @@
       <c r="N15">
         <v>4</v>
       </c>
+      <c r="AC15" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>5</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -10746,8 +10985,26 @@
       <c r="N16">
         <v>4</v>
       </c>
+      <c r="AC16" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -10778,8 +11035,26 @@
       <c r="N17">
         <v>4</v>
       </c>
+      <c r="AC17" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -10810,8 +11085,26 @@
       <c r="N18">
         <v>4</v>
       </c>
+      <c r="AC18" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD18">
+        <v>3</v>
+      </c>
+      <c r="AE18">
+        <v>21</v>
+      </c>
+      <c r="AF18">
+        <v>19</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -10842,8 +11135,9 @@
       <c r="N19">
         <v>4</v>
       </c>
+      <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -10874,8 +11168,9 @@
       <c r="N20">
         <v>4</v>
       </c>
+      <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -10906,8 +11201,24 @@
       <c r="N21">
         <v>4</v>
       </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -10938,8 +11249,31 @@
       <c r="N22">
         <v>4</v>
       </c>
+      <c r="AC22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD22" cm="1">
+        <f t="array" ref="AD22:AD33">COUNTIF(B52:B102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" cm="1">
+        <f t="array" ref="AE22:AE33">COUNTIF(E52:E102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" cm="1">
+        <f t="array" ref="AF22:AF33">COUNTIF(H52:H102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" cm="1">
+        <f t="array" ref="AG22:AG33">COUNTIF(K52:K102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" cm="1">
+        <f t="array" ref="AH22:AH33">COUNTIF(N52:N102,AC22:AC33)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -10970,8 +11304,26 @@
       <c r="N23">
         <v>4</v>
       </c>
+      <c r="AC23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD23">
+        <v>18</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>10</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -11002,8 +11354,26 @@
       <c r="N24">
         <v>4</v>
       </c>
+      <c r="AC24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -11034,8 +11404,26 @@
       <c r="N25">
         <v>12</v>
       </c>
+      <c r="AC25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>14</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>25</v>
+      </c>
+      <c r="AH25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -11066,8 +11454,29 @@
       <c r="N26">
         <v>5</v>
       </c>
+      <c r="AB26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD26">
+        <v>6</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>3</v>
+      </c>
+      <c r="AH26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -11098,8 +11507,26 @@
       <c r="N27">
         <v>4</v>
       </c>
+      <c r="AC27" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -11130,8 +11557,26 @@
       <c r="N28">
         <v>4</v>
       </c>
+      <c r="AC28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -11162,8 +11607,26 @@
       <c r="N29">
         <v>4</v>
       </c>
+      <c r="AC29" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -11194,8 +11657,26 @@
       <c r="N30">
         <v>2</v>
       </c>
+      <c r="AC30" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>25</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -11226,8 +11707,26 @@
       <c r="N31">
         <v>4</v>
       </c>
+      <c r="AC31" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -11258,8 +11757,26 @@
       <c r="N32">
         <v>4</v>
       </c>
+      <c r="AC32" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -11290,8 +11807,26 @@
       <c r="N33">
         <v>4</v>
       </c>
+      <c r="AC33" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD33">
+        <v>27</v>
+      </c>
+      <c r="AE33">
+        <v>11</v>
+      </c>
+      <c r="AF33">
+        <v>49</v>
+      </c>
+      <c r="AG33">
+        <v>13</v>
+      </c>
+      <c r="AH33">
+        <v>30</v>
+      </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -11323,7 +11858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -11355,7 +11890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -11387,7 +11922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -11419,7 +11954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -11451,7 +11986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -11483,7 +12018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -11515,7 +12050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -11547,7 +12082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -11579,7 +12114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -11611,7 +12146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -11643,7 +12178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -11675,7 +12210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -11707,7 +12242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -11739,7 +12274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
